--- a/vertx-pin/zero-erp/src/main/resources/modulat/zero-e.organization.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/modulat/zero-e.organization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF7CC3-9D7D-B54D-AF6C-B180165F60DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6A6EC-208E-A945-83D8-AEFCAA42C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60820" yWindow="-2900" windowWidth="52960" windowHeight="26900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="46700" yWindow="-2940" windowWidth="52960" windowHeight="26900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
   <si>
     <t>key</t>
   </si>
@@ -401,6 +401,52 @@
   <si>
     <t>组织架构管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>092c0dfa-f919-4f55-a69c-8e17b54ae0a9</t>
+  </si>
+  <si>
+    <t>b8a82b90-c0f9-46bb-8c91-772584dbe9af</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-E.ORG_PROJECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-E.ORG_CONTRACT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-e.organization/ORG_PROJECT/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-e.organization/ORG_CONTRACT/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-e.organization/ORG_PROJECT/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-e.organization/ORG_PROJECT/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-e.organization/ORG_CONTRACT/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-e.organization/ORG_CONTRACT/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -905,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1221,7 +1267,7 @@
         <v>92</v>
       </c>
       <c r="B16" s="14" t="str">
-        <f t="shared" ref="B16:B19" si="0">A$5</f>
+        <f t="shared" ref="B16:B21" si="0">A$5</f>
         <v>8f6fccd4-7cb6-4b4e-8bbb-d039321529a2</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1371,7 +1417,7 @@
       <c r="E19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1025</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -1397,6 +1443,98 @@
         <v>52</v>
       </c>
       <c r="Q19" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>8f6fccd4-7cb6-4b4e-8bbb-d039321529a2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1030</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>8f6fccd4-7cb6-4b4e-8bbb-d039321529a2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1035</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>51</v>
       </c>
     </row>

--- a/vertx-pin/zero-erp/src/main/resources/modulat/zero-e.organization.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/modulat/zero-e.organization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6A6EC-208E-A945-83D8-AEFCAA42C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C0B05-372C-F04B-B797-6CA7A699CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46700" yWindow="-2940" windowWidth="52960" windowHeight="26900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>key</t>
   </si>
@@ -446,6 +446,14 @@
   </si>
   <si>
     <t>JSON:modulat/zero-e.organization/ORG_CONTRACT/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_ORG_PROJECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_ORG_CONTRACT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +962,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1467,7 +1475,7 @@
         <v>1030</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="b">
@@ -1513,7 +1521,7 @@
         <v>1035</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="b">
